--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Tnfsf13b-Tnfrsf13c.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Tnfsf13b-Tnfrsf13c.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,25 +531,25 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.02589133333333334</v>
+        <v>0.08897633333333334</v>
       </c>
       <c r="H2">
-        <v>0.07767400000000001</v>
+        <v>0.266929</v>
       </c>
       <c r="I2">
-        <v>0.004658582669675427</v>
+        <v>0.01166961909325238</v>
       </c>
       <c r="J2">
-        <v>0.004696039738046181</v>
+        <v>0.01190636343604672</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -558,33 +558,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.1638863333333333</v>
+        <v>0.060513</v>
       </c>
       <c r="N2">
-        <v>0.491659</v>
+        <v>0.181539</v>
       </c>
       <c r="O2">
-        <v>0.4776595160731695</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.5399256538235568</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.004243235685111112</v>
+        <v>0.005384224859</v>
       </c>
       <c r="R2">
-        <v>0.038189121166</v>
+        <v>0.04845802373100001</v>
       </c>
       <c r="S2">
-        <v>0.002225216343584018</v>
+        <v>0.01166961909325238</v>
       </c>
       <c r="T2">
-        <v>0.002535512325945989</v>
+        <v>0.01190636343604672</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.02589133333333334</v>
+        <v>3.632128333333334</v>
       </c>
       <c r="H3">
-        <v>0.07767400000000001</v>
+        <v>10.896385</v>
       </c>
       <c r="I3">
-        <v>0.004658582669675427</v>
+        <v>0.4763688563004725</v>
       </c>
       <c r="J3">
-        <v>0.004696039738046181</v>
+        <v>0.4860330647816007</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -626,27 +626,27 @@
         <v>0.181539</v>
       </c>
       <c r="O3">
-        <v>0.1763698638454846</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0.1993608644802082</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.001566762254</v>
+        <v>0.219790981835</v>
       </c>
       <c r="R3">
-        <v>0.014100860286</v>
+        <v>1.978118836515</v>
       </c>
       <c r="S3">
-        <v>0.0008216335911635892</v>
+        <v>0.4763688563004725</v>
       </c>
       <c r="T3">
-        <v>0.0009362065418102971</v>
+        <v>0.4860330647816007</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -655,60 +655,60 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.02589133333333334</v>
+        <v>1.962678</v>
       </c>
       <c r="H4">
-        <v>0.07767400000000001</v>
+        <v>5.888033999999999</v>
       </c>
       <c r="I4">
-        <v>0.004658582669675427</v>
+        <v>0.2574134469769833</v>
       </c>
       <c r="J4">
-        <v>0.004696039738046181</v>
+        <v>0.262635654903738</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.1187035</v>
+        <v>0.060513</v>
       </c>
       <c r="N4">
-        <v>0.237407</v>
+        <v>0.181539</v>
       </c>
       <c r="O4">
-        <v>0.3459706200813459</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0.2607134816962349</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.003073391886333334</v>
+        <v>0.118767533814</v>
       </c>
       <c r="R4">
-        <v>0.018440351318</v>
+        <v>1.068907804326</v>
       </c>
       <c r="S4">
-        <v>0.001611732734927819</v>
+        <v>0.2574134469769833</v>
       </c>
       <c r="T4">
-        <v>0.001224320870289895</v>
+        <v>0.262635654903738</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,25 +717,25 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>3.632128333333334</v>
+        <v>0.45482</v>
       </c>
       <c r="H5">
-        <v>10.896385</v>
+        <v>0.90964</v>
       </c>
       <c r="I5">
-        <v>0.6535225470956983</v>
+        <v>0.0596515495430588</v>
       </c>
       <c r="J5">
-        <v>0.6587771578784449</v>
+        <v>0.04057447649362016</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -744,33 +744,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.1638863333333333</v>
+        <v>0.060513</v>
       </c>
       <c r="N5">
-        <v>0.491659</v>
+        <v>0.181539</v>
       </c>
       <c r="O5">
-        <v>0.4776595160731695</v>
+        <v>1</v>
       </c>
       <c r="P5">
-        <v>0.5399256538235568</v>
+        <v>1</v>
       </c>
       <c r="Q5">
-        <v>0.5952561947461111</v>
+        <v>0.02752252266</v>
       </c>
       <c r="R5">
-        <v>5.357305752715001</v>
+        <v>0.16513513596</v>
       </c>
       <c r="S5">
-        <v>0.3121612635886364</v>
+        <v>0.0596515495430588</v>
       </c>
       <c r="T5">
-        <v>0.3556906876915439</v>
+        <v>0.04057447649362016</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.632128333333334</v>
+        <v>1.486010666666667</v>
       </c>
       <c r="H6">
-        <v>10.896385</v>
+        <v>4.458032</v>
       </c>
       <c r="I6">
-        <v>0.6535225470956983</v>
+        <v>0.194896528086233</v>
       </c>
       <c r="J6">
-        <v>0.6587771578784449</v>
+        <v>0.1988504403849946</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -812,642 +812,22 @@
         <v>0.181539</v>
       </c>
       <c r="O6">
-        <v>0.1763698638454846</v>
+        <v>1</v>
       </c>
       <c r="P6">
-        <v>0.1993608644802082</v>
+        <v>1</v>
       </c>
       <c r="Q6">
-        <v>0.219790981835</v>
+        <v>0.08992296347200002</v>
       </c>
       <c r="R6">
-        <v>1.978118836515</v>
+        <v>0.809306671248</v>
       </c>
       <c r="S6">
-        <v>0.1152616826512226</v>
+        <v>0.194896528086233</v>
       </c>
       <c r="T6">
-        <v>0.1313343836944614</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>3.632128333333334</v>
-      </c>
-      <c r="H7">
-        <v>10.896385</v>
-      </c>
-      <c r="I7">
-        <v>0.6535225470956983</v>
-      </c>
-      <c r="J7">
-        <v>0.6587771578784449</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>0.5</v>
-      </c>
-      <c r="M7">
-        <v>0.1187035</v>
-      </c>
-      <c r="N7">
-        <v>0.237407</v>
-      </c>
-      <c r="O7">
-        <v>0.3459706200813459</v>
-      </c>
-      <c r="P7">
-        <v>0.2607134816962349</v>
-      </c>
-      <c r="Q7">
-        <v>0.4311463456158334</v>
-      </c>
-      <c r="R7">
-        <v>2.586878073695</v>
-      </c>
-      <c r="S7">
-        <v>0.2260996008558393</v>
-      </c>
-      <c r="T7">
-        <v>0.1717520864924396</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>1.033372666666667</v>
-      </c>
-      <c r="H8">
-        <v>3.100118</v>
-      </c>
-      <c r="I8">
-        <v>0.1859329503920082</v>
-      </c>
-      <c r="J8">
-        <v>0.1874279336796386</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M8">
-        <v>0.1638863333333333</v>
-      </c>
-      <c r="N8">
-        <v>0.491659</v>
-      </c>
-      <c r="O8">
-        <v>0.4776595160731695</v>
-      </c>
-      <c r="P8">
-        <v>0.5399256538235568</v>
-      </c>
-      <c r="Q8">
-        <v>0.1693556573068889</v>
-      </c>
-      <c r="R8">
-        <v>1.524200915762</v>
-      </c>
-      <c r="S8">
-        <v>0.08881264310630325</v>
-      </c>
-      <c r="T8">
-        <v>0.1011971496367771</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>1.033372666666667</v>
-      </c>
-      <c r="H9">
-        <v>3.100118</v>
-      </c>
-      <c r="I9">
-        <v>0.1859329503920082</v>
-      </c>
-      <c r="J9">
-        <v>0.1874279336796386</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M9">
-        <v>0.060513</v>
-      </c>
-      <c r="N9">
-        <v>0.181539</v>
-      </c>
-      <c r="O9">
-        <v>0.1763698638454846</v>
-      </c>
-      <c r="P9">
-        <v>0.1993608644802082</v>
-      </c>
-      <c r="Q9">
-        <v>0.06253248017800001</v>
-      </c>
-      <c r="R9">
-        <v>0.5627923216020001</v>
-      </c>
-      <c r="S9">
-        <v>0.03279296914502773</v>
-      </c>
-      <c r="T9">
-        <v>0.03736579488611189</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>1.033372666666667</v>
-      </c>
-      <c r="H10">
-        <v>3.100118</v>
-      </c>
-      <c r="I10">
-        <v>0.1859329503920082</v>
-      </c>
-      <c r="J10">
-        <v>0.1874279336796386</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>0.5</v>
-      </c>
-      <c r="M10">
-        <v>0.1187035</v>
-      </c>
-      <c r="N10">
-        <v>0.237407</v>
-      </c>
-      <c r="O10">
-        <v>0.3459706200813459</v>
-      </c>
-      <c r="P10">
-        <v>0.2607134816962349</v>
-      </c>
-      <c r="Q10">
-        <v>0.1226649523376667</v>
-      </c>
-      <c r="R10">
-        <v>0.7359897140260001</v>
-      </c>
-      <c r="S10">
-        <v>0.06432733814067719</v>
-      </c>
-      <c r="T10">
-        <v>0.04886498915674959</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.5</v>
-      </c>
-      <c r="G11">
-        <v>0.1329915</v>
-      </c>
-      <c r="H11">
-        <v>0.265983</v>
-      </c>
-      <c r="I11">
-        <v>0.023928929774988</v>
-      </c>
-      <c r="J11">
-        <v>0.01608088598044052</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M11">
-        <v>0.1638863333333333</v>
-      </c>
-      <c r="N11">
-        <v>0.491659</v>
-      </c>
-      <c r="O11">
-        <v>0.4776595160731695</v>
-      </c>
-      <c r="P11">
-        <v>0.5399256538235568</v>
-      </c>
-      <c r="Q11">
-        <v>0.0217954892995</v>
-      </c>
-      <c r="R11">
-        <v>0.130772935797</v>
-      </c>
-      <c r="S11">
-        <v>0.01142988101646963</v>
-      </c>
-      <c r="T11">
-        <v>0.008682482877051416</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0.5</v>
-      </c>
-      <c r="G12">
-        <v>0.1329915</v>
-      </c>
-      <c r="H12">
-        <v>0.265983</v>
-      </c>
-      <c r="I12">
-        <v>0.023928929774988</v>
-      </c>
-      <c r="J12">
-        <v>0.01608088598044052</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M12">
-        <v>0.060513</v>
-      </c>
-      <c r="N12">
-        <v>0.181539</v>
-      </c>
-      <c r="O12">
-        <v>0.1763698638454846</v>
-      </c>
-      <c r="P12">
-        <v>0.1993608644802082</v>
-      </c>
-      <c r="Q12">
-        <v>0.008047714639499999</v>
-      </c>
-      <c r="R12">
-        <v>0.04828628783699999</v>
-      </c>
-      <c r="S12">
-        <v>0.004220342086382797</v>
-      </c>
-      <c r="T12">
-        <v>0.003205899330668283</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.5</v>
-      </c>
-      <c r="G13">
-        <v>0.1329915</v>
-      </c>
-      <c r="H13">
-        <v>0.265983</v>
-      </c>
-      <c r="I13">
-        <v>0.023928929774988</v>
-      </c>
-      <c r="J13">
-        <v>0.01608088598044052</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>0.5</v>
-      </c>
-      <c r="M13">
-        <v>0.1187035</v>
-      </c>
-      <c r="N13">
-        <v>0.237407</v>
-      </c>
-      <c r="O13">
-        <v>0.3459706200813459</v>
-      </c>
-      <c r="P13">
-        <v>0.2607134816962349</v>
-      </c>
-      <c r="Q13">
-        <v>0.01578655652025</v>
-      </c>
-      <c r="R13">
-        <v>0.063146226081</v>
-      </c>
-      <c r="S13">
-        <v>0.00827870667213558</v>
-      </c>
-      <c r="T13">
-        <v>0.004192503772720821</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>0.7333866666666667</v>
-      </c>
-      <c r="H14">
-        <v>2.20016</v>
-      </c>
-      <c r="I14">
-        <v>0.1319569900676299</v>
-      </c>
-      <c r="J14">
-        <v>0.1330179827234298</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M14">
-        <v>0.1638863333333333</v>
-      </c>
-      <c r="N14">
-        <v>0.491659</v>
-      </c>
-      <c r="O14">
-        <v>0.4776595160731695</v>
-      </c>
-      <c r="P14">
-        <v>0.5399256538235568</v>
-      </c>
-      <c r="Q14">
-        <v>0.1201920517155556</v>
-      </c>
-      <c r="R14">
-        <v>1.08172846544</v>
-      </c>
-      <c r="S14">
-        <v>0.06303051201817614</v>
-      </c>
-      <c r="T14">
-        <v>0.07181982129223842</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>0.7333866666666667</v>
-      </c>
-      <c r="H15">
-        <v>2.20016</v>
-      </c>
-      <c r="I15">
-        <v>0.1319569900676299</v>
-      </c>
-      <c r="J15">
-        <v>0.1330179827234298</v>
-      </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
-      <c r="L15">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M15">
-        <v>0.060513</v>
-      </c>
-      <c r="N15">
-        <v>0.181539</v>
-      </c>
-      <c r="O15">
-        <v>0.1763698638454846</v>
-      </c>
-      <c r="P15">
-        <v>0.1993608644802082</v>
-      </c>
-      <c r="Q15">
-        <v>0.04437942736000001</v>
-      </c>
-      <c r="R15">
-        <v>0.3994148462400001</v>
-      </c>
-      <c r="S15">
-        <v>0.02327323637168786</v>
-      </c>
-      <c r="T15">
-        <v>0.02651858002715637</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>0.7333866666666667</v>
-      </c>
-      <c r="H16">
-        <v>2.20016</v>
-      </c>
-      <c r="I16">
-        <v>0.1319569900676299</v>
-      </c>
-      <c r="J16">
-        <v>0.1330179827234298</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>0.5</v>
-      </c>
-      <c r="M16">
-        <v>0.1187035</v>
-      </c>
-      <c r="N16">
-        <v>0.237407</v>
-      </c>
-      <c r="O16">
-        <v>0.3459706200813459</v>
-      </c>
-      <c r="P16">
-        <v>0.2607134816962349</v>
-      </c>
-      <c r="Q16">
-        <v>0.08705556418666668</v>
-      </c>
-      <c r="R16">
-        <v>0.52233338512</v>
-      </c>
-      <c r="S16">
-        <v>0.04565324167776592</v>
-      </c>
-      <c r="T16">
-        <v>0.03467958140403501</v>
+        <v>0.1988504403849946</v>
       </c>
     </row>
   </sheetData>
